--- a/artfynd/A 13008-2019.xlsx
+++ b/artfynd/A 13008-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>89597307</v>
+        <v>89597312</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>498893.1133621669</v>
+        <v>499781.0776972048</v>
       </c>
       <c r="R2" t="n">
-        <v>7097252.11477678</v>
+        <v>7097735.867033606</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -779,7 +779,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Grenar på senvuxna granar.</t>
+          <t>Stubbe efter rötbruten granlåga.</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89597312</v>
+        <v>89597315</v>
       </c>
       <c r="B3" t="n">
-        <v>89388</v>
+        <v>81236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>499781.0776972048</v>
+        <v>499781.0755403637</v>
       </c>
       <c r="R3" t="n">
-        <v>7097735.867033606</v>
+        <v>7097705.156772603</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stubbe efter rötbruten granlåga.</t>
+          <t>Barken av gammal gran.</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>89597322</v>
+        <v>89597318</v>
       </c>
       <c r="B4" t="n">
-        <v>78596</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +934,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>498943.8465154312</v>
+        <v>499748.1771745007</v>
       </c>
       <c r="R4" t="n">
-        <v>7097865.018080458</v>
+        <v>7098302.200374758</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Asp, ca 30 cm dbh</t>
+          <t>Hård granlåga, delvis utan bark, ca 25 cm basdiameter.</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>89597315</v>
+        <v>110256790</v>
       </c>
       <c r="B5" t="n">
-        <v>81236</v>
+        <v>76486</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,37 +1059,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>6487</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Stor-Klumpvattnet, Jmt</t>
+          <t>Långströmmen, Finnvattnet, Ström, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>499781.0755403637</v>
+        <v>499769.6698048975</v>
       </c>
       <c r="R5" t="n">
-        <v>7097705.156772603</v>
+        <v>7097918.368325027</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1113,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1123,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-09-24</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1137,37 +1140,29 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Barken av gammal gran.</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Rashid Kadhim, Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>89597329</v>
+        <v>89597302</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1175,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1204,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>498943.8465154312</v>
+        <v>500117.1040142261</v>
       </c>
       <c r="R6" t="n">
-        <v>7097865.018080458</v>
+        <v>7098421.937831526</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1252,6 +1247,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Asp, ca 30 cm dbh.</t>
+          <t>Ringhackad gran</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89597306</v>
+        <v>89597314</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,21 +1301,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1325,10 +1325,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>499709.8998828343</v>
+        <v>499970.8527080517</v>
       </c>
       <c r="R7" t="n">
-        <v>7097587.144629168</v>
+        <v>7098207.882096835</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1373,6 +1373,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1384,7 +1389,7 @@
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>Stående död sälg</t>
+          <t>Ringhackad gran.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1406,10 +1411,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>89597343</v>
+        <v>89597322</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>78596</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1423,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1446,10 +1451,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>499158.8614063348</v>
+        <v>498943.8465154312</v>
       </c>
       <c r="R8" t="n">
-        <v>7097029.99925938</v>
+        <v>7097865.018080458</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1494,11 +1499,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1507,6 +1507,11 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Asp, ca 30 cm dbh</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1527,10 +1532,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>89597334</v>
+        <v>89597329</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,21 +1548,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1567,10 +1572,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>499194.0146763478</v>
+        <v>498943.8465154312</v>
       </c>
       <c r="R9" t="n">
-        <v>7097040.082702531</v>
+        <v>7097865.018080458</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1615,11 +1620,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1628,6 +1628,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Asp, ca 30 cm dbh.</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1648,10 +1653,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89597354</v>
+        <v>89597306</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,21 +1669,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1688,10 +1693,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>499273.0999298615</v>
+        <v>499709.8998828343</v>
       </c>
       <c r="R10" t="n">
-        <v>7097025.143565744</v>
+        <v>7097587.144629168</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1744,6 +1749,11 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stående död sälg</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -2006,10 +2016,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89597356</v>
+        <v>89597316</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>89388</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2022,21 +2032,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2046,10 +2056,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>499171.1649542368</v>
+        <v>499395.018097826</v>
       </c>
       <c r="R13" t="n">
-        <v>7097033.067667898</v>
+        <v>7098100.908342795</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2094,11 +2104,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2107,6 +2112,11 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Levande gran, ca 40 cm dbh.</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2127,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>89597316</v>
+        <v>89597325</v>
       </c>
       <c r="B14" t="n">
-        <v>89388</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2143,21 +2153,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2167,10 +2177,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>499395.018097826</v>
+        <v>499474.0859897781</v>
       </c>
       <c r="R14" t="n">
-        <v>7098100.908342795</v>
+        <v>7098136.864290374</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2215,6 +2225,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2226,7 +2241,7 @@
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Levande gran, ca 40 cm dbh.</t>
+          <t>Ringhackad torraka av gran.</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2248,10 +2263,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>89597325</v>
+        <v>89597323</v>
       </c>
       <c r="B15" t="n">
-        <v>56395</v>
+        <v>89406</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,21 +2279,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2288,10 +2303,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>499474.0859897781</v>
+        <v>499122.146710886</v>
       </c>
       <c r="R15" t="n">
-        <v>7098136.864290374</v>
+        <v>7097717.11811764</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2336,11 +2351,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2352,7 +2362,7 @@
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Ringhackad torraka av gran.</t>
+          <t>Grov, något mjuk granlåga</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2374,10 +2384,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>89597323</v>
+        <v>110254420</v>
       </c>
       <c r="B16" t="n">
-        <v>89406</v>
+        <v>89545</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2386,41 +2396,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1204</v>
+        <v>1503</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Stor-Klumpvattnet, Jmt</t>
+          <t>Mörttjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>499122.146710886</v>
+        <v>499343.6251420794</v>
       </c>
       <c r="R16" t="n">
-        <v>7097717.11811764</v>
+        <v>7098087.758775735</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2444,7 +2455,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2454,7 +2465,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-09-24</t>
+          <t>2023-06-21</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2470,35 +2481,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Grov, något mjuk granlåga</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Via Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
-        </is>
-      </c>
+          <t>Rashid Kadhim, Hugo Ström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>89597373</v>
+        <v>89597307</v>
       </c>
       <c r="B17" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2511,21 +2513,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2535,10 +2537,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>499288.9079445655</v>
+        <v>498893.1133621669</v>
       </c>
       <c r="R17" t="n">
-        <v>7096982.135690764</v>
+        <v>7097252.11477678</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2583,11 +2585,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2596,6 +2593,11 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Grenar på senvuxna granar.</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2616,10 +2618,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>89597318</v>
+        <v>89597305</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>94440</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2632,21 +2634,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>1841</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedflikmossa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lophozia guttulata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Lindb. &amp; Arnell) A.Evans</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2656,10 +2658,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>499748.1771745007</v>
+        <v>498908.9565977607</v>
       </c>
       <c r="R18" t="n">
-        <v>7098302.200374758</v>
+        <v>7097328.017872542</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2715,7 +2717,7 @@
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Hård granlåga, delvis utan bark, ca 25 cm basdiameter.</t>
+          <t>Ved på kraftigt nedbruten granlåga.</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2737,10 +2739,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89597305</v>
+        <v>89597343</v>
       </c>
       <c r="B19" t="n">
-        <v>94440</v>
+        <v>56395</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2753,21 +2755,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1841</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedflikmossa</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lophozia guttulata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Lindb. &amp; Arnell) A.Evans</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2777,10 +2779,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>498908.9565977607</v>
+        <v>499158.8614063348</v>
       </c>
       <c r="R19" t="n">
-        <v>7097328.017872542</v>
+        <v>7097029.99925938</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2825,6 +2827,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2833,11 +2840,6 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Ved på kraftigt nedbruten granlåga.</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2858,10 +2860,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110256790</v>
+        <v>89597334</v>
       </c>
       <c r="B20" t="n">
-        <v>76486</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2874,40 +2876,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6487</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Långströmmen, Finnvattnet, Ström, Jmt</t>
+          <t>Stor-Klumpvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>499769.6698048975</v>
+        <v>499194.0146763478</v>
       </c>
       <c r="R20" t="n">
-        <v>7097918.368325027</v>
+        <v>7097040.082702531</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2931,7 +2930,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2941,7 +2940,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2949,35 +2948,43 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110254420</v>
+        <v>89597354</v>
       </c>
       <c r="B21" t="n">
-        <v>89545</v>
+        <v>89410</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2986,42 +2993,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1503</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Mörttjärnen, Jmt</t>
+          <t>Stor-Klumpvattnet, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>499343.6251420794</v>
+        <v>499273.0999298615</v>
       </c>
       <c r="R21" t="n">
-        <v>7098087.758775735</v>
+        <v>7097025.143565744</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3045,7 +3051,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3055,7 +3061,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-06-21</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3075,19 +3081,23 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Erland Lindblad</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Rashid Kadhim, Hugo Ström</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>89597302</v>
+        <v>89597356</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3127,10 +3137,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>500117.1040142261</v>
+        <v>499171.1649542368</v>
       </c>
       <c r="R22" t="n">
-        <v>7098421.937831526</v>
+        <v>7097033.067667898</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3188,11 +3198,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Ringhackad gran</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3213,7 +3218,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>89597314</v>
+        <v>89597373</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3253,10 +3258,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>499970.8527080517</v>
+        <v>499288.9079445655</v>
       </c>
       <c r="R23" t="n">
-        <v>7098207.882096835</v>
+        <v>7096982.135690764</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3314,11 +3319,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Ringhackad gran.</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
